--- a/output/frat/gensim/gensim_top10.xlsx
+++ b/output/frat/gensim/gensim_top10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\gensim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A51EDD3-11FE-4DA0-B111-7B934E24FAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C72EEFC-5B22-4D1C-A15D-0241D3F863A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">answer </t>
   </si>
   <si>
-    <t>answer, responsion, askable, interrogative_sentence, answers, answered, replier, answer_back, questions, ode_in_reply</t>
+    <t>answer, response, liquid_bleach, bleach_liquor, gram's_solution, leading_question, question_of_law, rejoinder, spirits_of_ammonia, evasive_answer</t>
   </si>
   <si>
     <t xml:space="preserve">sensitive </t>
@@ -70,7 +70,7 @@
     <t>cry</t>
   </si>
   <si>
-    <t>shed_tears, sobful, weeps, shed_tear, sobs, sobbing, cry, weeping, cry_someone_river, wept</t>
+    <t>cry, crying, snivel, blue_murder, whimper, wailing, blubberer, lament, weeper, bawler</t>
   </si>
   <si>
     <t xml:space="preserve">antlers </t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">deer </t>
   </si>
   <si>
-    <t>deer, fawns, elk, mule_deer, cervus_elaphus, female_deer, schomburgk's_deer, rusa_deer, cervine, black_tailed_deer</t>
+    <t>deer, elk, mule_deer, antler, pere_david's_deer, fallow_deer, red_deer, cervus, roe_deer, wapiti</t>
   </si>
   <si>
     <t xml:space="preserve">bud </t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">flower </t>
   </si>
   <si>
-    <t>floral_leaf, flower, chloranthy, flower_bud, umbrellawort, common_dandelion, taraxacum_officinale, easter_daisy, blossom, blossoms</t>
+    <t>floral_leaf, flower, flower_bud, umbrellawort, common_dandelion, easter_daisy, ray_flower, dandelion_green, tidytips, petal</t>
   </si>
   <si>
     <t xml:space="preserve">colt </t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">horse </t>
   </si>
   <si>
-    <t>horseling, small_horse, male_horse, filly, foal, stallion, ridgeling, female_horse, studdery, horse</t>
+    <t>male_horse, filly, foal, stallion, ridgeling, horse, polo_pony, gelding, broodmare, pony</t>
   </si>
   <si>
     <t xml:space="preserve">crown </t>
@@ -145,7 +145,7 @@
     <t>math</t>
   </si>
   <si>
-    <t>infinitesimal_calculus, bialgebra, hacoversed_sine, trigonometrist, circular_function, coversed_sine, pure_mathematics, vertex_form, prealgebra, math</t>
+    <t>pure_mathematics, vector_algebra, integral_calculus, quadratics, spherical_trigonometry, differential_calculus, matrix_algebra, ptyalith, calculus_of_variations, affine_geometry</t>
   </si>
   <si>
     <t xml:space="preserve">pedal </t>
@@ -160,7 +160,7 @@
     <t>push</t>
   </si>
   <si>
-    <t>push, pulls, pushes, hitch_up, shoves, shoved, bellpull, trusion, pulling, apply_seal</t>
+    <t>push, bellpull, thrust, nudge, tug, pedal_point, lever, squeeze, sustaining_pedal, brake_pedal</t>
   </si>
   <si>
     <t xml:space="preserve">clockwise </t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">right </t>
   </si>
   <si>
-    <t>sinistrously, sinistrous, deasil, leftwise, leftward, lefts, left_hand, on_left, leftwards, ambidextral</t>
+    <t>right, dextrorotation, right_of_action, right_of_search, rightism</t>
   </si>
   <si>
     <t xml:space="preserve">flu </t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">sick </t>
   </si>
   <si>
-    <t>influenza, influenza_virus, influenzavirus, h1n1, grippe, influenzal, flulike, contagious_disease, h5n1, tumor_virus</t>
+    <t>influenza, contagious_disease, tumor_virus, upper_respiratory_infection, viral_infection, slow_virus, swine_influenza, respiratory_syncytial_virus, communicable_disease, asian_influenza</t>
   </si>
   <si>
     <t xml:space="preserve">astronomy </t>
@@ -205,7 +205,7 @@
     <t>star</t>
   </si>
   <si>
-    <t>lunar_occultation, mundilfari, fornjot, thrymr, farbauti, bergelmir, suttungr, skathi, bestla, ijiraq</t>
+    <t>celestial_body, outer_planet, superior_planet</t>
   </si>
   <si>
     <t xml:space="preserve">bait </t>
@@ -220,7 +220,7 @@
     <t>fish</t>
   </si>
   <si>
-    <t>bite_indicator, bait_hook, rough_fish, fish, baits, edible_fish, baitfish, food_fish, trouter, piscatology</t>
+    <t>rough_fish, fish, food_fish, panfish, freshwater_fish, fishing, game_fish, scombroid, striped_killifish, fisherman's_lure</t>
   </si>
   <si>
     <t xml:space="preserve">bandaid </t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">cut </t>
   </si>
   <si>
-    <t>raw_wound, cover_wound, sticking_plaster, adhesive_bandage, wounds, bandage, forwound, cicatrisive, band_aid, bandages</t>
+    <t>raw_wound, adhesive_bandage, bandage, band_aid, oblique_bandage, flesh_wound, roller_bandage, laceration, capeline_bandage, elastoplast</t>
   </si>
   <si>
     <t xml:space="preserve">gravity </t>
@@ -250,7 +250,7 @@
     <t>down</t>
   </si>
   <si>
-    <t>ground_hugging, lows, gravireceptor, lower, extratidal, higher, upbound, lowset, down, air_mass</t>
+    <t>down, air_mass, high, solar_gravity, above, rise, lowering, rock_bottom, lower_berth, gravitation</t>
   </si>
   <si>
     <t xml:space="preserve">emergency </t>
@@ -265,7 +265,7 @@
     <t>fast</t>
   </si>
   <si>
-    <t>larghissimo, fast, hasteful, speedy, quick, slow_up, rapidness, bumper_to_bumper, high_velocity, ultrarapid</t>
+    <t>fast, quick, swift, speed, western_fence_lizard</t>
   </si>
   <si>
     <t xml:space="preserve">brawl </t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">fight </t>
   </si>
   <si>
-    <t>pitched_battle, battle_royal, skirmish, battle, come_to_blows, brawls, quarrel, fratch, fight, altercate</t>
+    <t>pitched_battle, battle, quarrel, fight, dispute, scuffle, melee, combat, controversy, fistfight</t>
   </si>
   <si>
     <t xml:space="preserve">birds </t>
@@ -295,7 +295,7 @@
     <t>fly</t>
   </si>
   <si>
-    <t>two_wings, spread_wings, white_tailed_kite, bird, not_mammals, whistling_kite, swallow_tailed_kite, head_south, hollow_bones, very_colorful</t>
+    <t>bird, dickeybird, tailed_frog, uropygium, piciform_bird, protoavis, sinornis, milvus, tongueless_frog, caprimulgiform_bird</t>
   </si>
   <si>
     <t xml:space="preserve">finger </t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">hand </t>
   </si>
   <si>
-    <t>half_glove, swan_neck_deformity, fingercot, head_line, fingers, triradius, fingerwise, palms, ridgehand, thumb</t>
+    <t>thumb, fingertip, baseball_glove, thenar, nipa_palm, fishtail_palm, batting_glove, hand, lady_palm, royal_palm</t>
   </si>
   <si>
     <t xml:space="preserve">bed </t>
@@ -325,7 +325,7 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>sleeping_furniture, sleeping_pill, where_sleep, sleeping_people, lack_of_light, sedatives, sleigh_bed, sleeping_place, somnific, sopor</t>
+    <t>sleeping_pill, sleigh_bed, platform_bed, glutethimide, lake_bed, turnip_bed, sleeping, murphy_bed, ethchlorvynol, sleep</t>
   </si>
   <si>
     <t xml:space="preserve">discuss </t>
@@ -340,7 +340,7 @@
     <t>talk</t>
   </si>
   <si>
-    <t>dish_dirt, talk, chew_fat, chitchat, chat, bandy_around, bandy_about, telephone_conversation, chinfest, betalk</t>
+    <t>talk, chitchat, chat, telephone_conversation, gossiping, table_talk, shmooze, shop_talk, scandalmonger, conversation</t>
   </si>
   <si>
     <t xml:space="preserve">fangs </t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">teeth </t>
   </si>
   <si>
-    <t>wolfs, fang, teeth, fangy, fanging, fanged, tibetan_wolf, unfanged, hugo_wolf, friedrich_august_wolf</t>
+    <t>fang, toxicognath, white_wolf, carnassial_tooth, timber_wolf, tooth, gingiva, malposed_tooth, red_wolf, dentition</t>
   </si>
   <si>
     <t xml:space="preserve">marsh </t>
@@ -370,7 +370,7 @@
     <t>wet</t>
   </si>
   <si>
-    <t>uliginous, spittly, marshes, sloughy, tobacco_juice, slithery, slippy, spittle, slimy, miry</t>
+    <t>tobacco_juice, swamp, gleet, mud, mucus, wetland, bog, slick, spit, salt_marsh</t>
   </si>
   <si>
     <t xml:space="preserve">dictionary </t>
@@ -385,7 +385,7 @@
     <t>words</t>
   </si>
   <si>
-    <t>rhyming_dictionary, wordbook, lexiconic, word_hoard, idioticon, lexiconophilia, lexiconophilist, lexicon, pocket_dictionary, dictionaries</t>
+    <t>wordbook, pocket_dictionary, desk_dictionary, etymological_dictionary, bilingual_dictionary, thesaurus, learner's_dictionary, internal_rhyme, lexis, eye_rhyme</t>
   </si>
   <si>
     <t xml:space="preserve">fault </t>
@@ -400,7 +400,7 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>wrong, in_wrong, unright, wrength, erroneous, wrongdom, misconcern, wrongs, faulty, unfair</t>
+    <t>wrong, error, mistake, erroneousness, unfairness, incorrectness, injustice</t>
   </si>
   <si>
     <t>murder</t>
@@ -415,7 +415,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>stylomastoid_vein, tympanic_vein, sublingual_vein, operate_on, subclavian_vein, murders, maxillary_vein, vertebral_vein, popliteal_vein, basal_vein</t>
+    <t>tympanic_vein, sublingual_vein, stylomastoid_vein, subclavian_vein, brachial_vein, maxillary_vein, popliteal_vein, basal_vein, vertebral_vein, intercostal_vein</t>
   </si>
   <si>
     <t>empire</t>
@@ -430,7 +430,7 @@
     <t>castle</t>
   </si>
   <si>
-    <t>imperial_princess, princesses, crown_princess, first_french_empire, princess_royal, princesslike, empery, imperial_prince, princes, empress</t>
+    <t>crown_princess, princess_royal, empress, prince, emperor, second_empire, queen_consort, queen, prince_of_wales, grand_duchess</t>
   </si>
   <si>
     <t>bench</t>
@@ -445,7 +445,7 @@
     <t>chair</t>
   </si>
   <si>
-    <t>music_stool, flat_bench, benchlet, end_table, chaise_longue, settee, morris_chair, couch, chaise_lounge, loveseat</t>
+    <t>music_stool, flat_bench, chaise_longue, settee, morris_chair, couch, banquette, footstool, recliner, campstool</t>
   </si>
   <si>
     <t>beaker</t>
@@ -460,7 +460,7 @@
     <t>chemistry</t>
   </si>
   <si>
-    <t>fleaker, beakers, lab_glassware, büchner_flask, holding_liquids, flasks, flaskful, chemistry_lab, round_bottom_flask, store_liquids</t>
+    <t>chemistry_lab, erlenmeyer_flask, vacuum_flask, bottle, hipflask, pill_bottle, specimen_bottle, flagon, drinking_vessel, phial</t>
   </si>
   <si>
     <t>adults</t>
@@ -487,7 +487,7 @@
     <t>dead</t>
   </si>
   <si>
-    <t>cemetary, memorial_park, burial_site, graveyard, burial_place, burial_ground, gravestead, cemeteries, burying_dead, taphophile</t>
+    <t>grave, churchyard, diabetic_coma, burial_chamber, burial, coffin, semicoma, morgue, potter's_field, funeral</t>
   </si>
   <si>
     <t>exam</t>
@@ -502,7 +502,7 @@
     <t>fear</t>
   </si>
   <si>
-    <t>fright, affright, bescare, terrors, affear, terrify, terrorise, affrights, frighten, reign_of_terror</t>
+    <t>reign_of_terror, fear, panic, horror, terrorization, intimidation, cold_feet, anxiety_attack</t>
   </si>
   <si>
     <t>hand</t>
@@ -517,7 +517,7 @@
     <t>finger</t>
   </si>
   <si>
-    <t>didactylism, sexdigitism, sexdigital, sexdigitist, acroataxia, finger, five_fingers, fingerwise, fingers, hypodactyly</t>
+    <t>finger, intercapitular_vein, oligodactyly, digital_arteries, big_toe, thumb, forepaw, fingertip, little_toe, hands</t>
   </si>
   <si>
     <t>angel</t>
@@ -532,7 +532,7 @@
     <t>god</t>
   </si>
   <si>
-    <t>restrictivism, prosperity_theology, lay_speaker, lay_preacher, local_preacher, lay_reader, religious_belief, church_militant, fivefold_ministry, side_chapel</t>
+    <t>lay_reader, side_chapel, lady_chapel, religious_doctrine, old_catholic_church, sacerdotalism, divine_messenger, old_catholic, catholic_church, church_service</t>
   </si>
   <si>
     <t>body</t>
@@ -547,7 +547,7 @@
     <t>head</t>
   </si>
   <si>
-    <t>cephalosomatic, lump_of_meat, human_form, main_artery, skulls, death's_head, human_skull, arms_legs, piece_of_meat, dead_body</t>
+    <t>death's_head, human_head, torso, live_body, cranium, human_body, axial_skeleton, sinciput, musculoskeletal_system, coronal_suture</t>
   </si>
   <si>
     <t>cello</t>
@@ -562,7 +562,7 @@
     <t>instrument</t>
   </si>
   <si>
-    <t>acoustic_instrument, violin, playing_music, play_jazz, band_room, instrument_of_music, music_shop, music_instrument, violincello, playing_in_orchestra</t>
+    <t>violin, clarinet, wind_instrument, trombone, heckelphone, bowed_stringed_instrument, keyboard_instrument, musical_instrument, oboe, stradavarius</t>
   </si>
   <si>
     <t>desk</t>
@@ -577,7 +577,7 @@
     <t>pen</t>
   </si>
   <si>
-    <t>paper_punch, desk_drawer, stamp_pad, pencil_holder, office_supply_store, glue_stick, paperclips, post_notes, holding_papers_together, desk_organizer</t>
+    <t>paper_fastener, message_pad, pencil_sharpener, copyholder, staple_gun, pen, office_furniture, rolodex, writing_implement, notepad</t>
   </si>
   <si>
     <t>arrest</t>
@@ -592,7 +592,7 @@
     <t>cop</t>
   </si>
   <si>
-    <t>officer, second_in_command, badges, under_arrest, nonarrest, arrests, bound_bailiff, officering, sheriff, police_constable</t>
+    <t>officer, sheriff, constable, police, police_sergeant, policeman, insignia, police_commissioner, military_officer, desk_sergeant</t>
   </si>
   <si>
     <t>electron</t>
@@ -607,7 +607,7 @@
     <t>energy</t>
   </si>
   <si>
-    <t>excitation_function, delta_ray, coulomb_energy, photoionisation, fano_effect, electrons, zitterbewegung, electroexcitation, mesonium, partial_charge</t>
+    <t>delta_ray, free_electron, moment_of_inertia, momentum, angular_momentum</t>
   </si>
   <si>
     <t>diet</t>
@@ -622,7 +622,7 @@
     <t>exercise</t>
   </si>
   <si>
-    <t>strains, stress_out, unsweat, sweating, sudation, sudoral, break_sweat, sudor, perspirate, perspiringly</t>
+    <t>perspiration, balanced_diet, carbohydrate_loading, allergy_diet, reducing_diet, stress, bland_diet, light_diet, dietary, overstrain</t>
   </si>
   <si>
     <t>assault</t>
@@ -631,7 +631,7 @@
     <t>gun</t>
   </si>
   <si>
-    <t>homicide, contract_killing, murders, unlawful_death, drygulch, second_degree_murder, first_degree_murder, crime_passionnel, attempted_rape, crime_of_passion</t>
+    <t>homicide, contract_killing, aggravated_assault, crime, manslaughter, robbery, mugging, mariticide, killing, armed_robbery</t>
   </si>
   <si>
     <t>drill</t>
@@ -646,7 +646,7 @@
     <t>hole</t>
   </si>
   <si>
-    <t>dentist's_drill, breast_drill, pilot_hole, drills, begrave, gravedigging, gouge_out, graveward, countersunk_hole, bore_bit</t>
+    <t>dentist's_drill, breast_drill, bore_bit, straight_flute, core_drill, power_drill, dig, drilling, posthole, burial_chamber</t>
   </si>
   <si>
     <t>care</t>
@@ -661,7 +661,7 @@
     <t>kind</t>
   </si>
   <si>
-    <t>caresome, considerate, willing_and_able, caringness, caring, considerative, solicitous, heedful, cared, regardful</t>
+    <t>great_care, scheduled_maintenance, tree_surgery, camera_care, kid_glove, tender_loving_care, personal_care, due_care, nurturance, carefulness</t>
   </si>
   <si>
     <t>midnight</t>
@@ -673,7 +673,7 @@
     <t>moon</t>
   </si>
   <si>
-    <t>ijiraq, dead_of_night, bergelmir, postmidnight, fornjot, farbauti, bestla, thrymr, skathi, suttungr</t>
+    <t>white_wolf, moon, timber_wolf, red_wolf, cosmic_time</t>
   </si>
   <si>
     <t>bloom</t>
@@ -688,7 +688,7 @@
     <t>open</t>
   </si>
   <si>
-    <t>business_opportunity, opportunities, blooms, tocleave, chance, brass_ring, blossom, blowth, blossoming, blossoms</t>
+    <t>chance, brass_ring, blossoming, blooming, flower, umbrellawort, occasion, divide, flourish, break</t>
   </si>
   <si>
     <t>accomplished</t>
@@ -703,7 +703,7 @@
     <t>smart</t>
   </si>
   <si>
-    <t>vafrous, subdolous, cunning, slyboots, wily, skillful, sneckdraw, sly_as_fox, crafty, sleighty</t>
+    <t>cunning, common_dolphin, delphinus, river_dolphin</t>
   </si>
   <si>
     <t>duck</t>
@@ -718,7 +718,7 @@
     <t>swim</t>
   </si>
   <si>
-    <t>clupeid_fish, pilchard, water_animal, edible_fish, food_fish, sardiner, sinkers, clupeid, split_tail, webbed_feet</t>
+    <t>clupeid_fish, pilchard, food_fish, sild, fish, scombroid, chum_salmon, black_duck, whitebait, saltwater_fish</t>
   </si>
   <si>
     <t>europe</t>
@@ -733,7 +733,7 @@
     <t>trip</t>
   </si>
   <si>
-    <t>european_country, packs, baltic_state, mushrooms, scandinavian_country, metropolitan_france, europhobe, europhiliac, cortinar, webcap</t>
+    <t>european_country, baltic_state, scandinavian_country, balkan_country, tartary, european, european_russia, stuffed_mushroom, europa, continent</t>
   </si>
   <si>
     <t>fierce</t>
@@ -748,10 +748,10 @@
     <t>strong</t>
   </si>
   <si>
-    <t>ferocious, fiercest, steeled, steely, warriors, fiercer, bowelless, warriorhood, incessive, strong_metal</t>
-  </si>
-  <si>
-    <t>31.2%</t>
+    <t>austenitic_steel, chisel_steel, medium_steel, brave, quenched_steel, fighter, mild_steel, combatant, tool_steel, crucible_steel</t>
+  </si>
+  <si>
+    <t>39.6%</t>
   </si>
 </sst>
 </file>
@@ -1117,18 +1117,13 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="126.54296875" customWidth="1"/>
-    <col min="8" max="8" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="109.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1309,7 +1304,7 @@
         <v>40</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -1355,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -1562,7 +1557,7 @@
         <v>95</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>96</v>
@@ -1585,7 +1580,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>101</v>
@@ -1631,7 +1626,7 @@
         <v>110</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>111</v>
@@ -1861,7 +1856,7 @@
         <v>159</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>160</v>
@@ -1976,7 +1971,7 @@
         <v>184</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>185</v>
@@ -2137,7 +2132,7 @@
         <v>216</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>217</v>
